--- a/final_data_pipeline/output/322110_kraft_elec_nowhp.xlsx
+++ b/final_data_pipeline/output/322110_kraft_elec_nowhp.xlsx
@@ -694,7 +694,7 @@
         <v>45</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -709,10 +709,10 @@
         <v>234355.2766709272</v>
       </c>
       <c r="N4">
-        <v>1.280428571428571</v>
+        <v>1.352319749654237</v>
       </c>
       <c r="O4">
-        <v>1.342878787878788</v>
+        <v>1.423118895050623</v>
       </c>
       <c r="P4">
         <v>29.29440958386591</v>
@@ -747,7 +747,7 @@
         <v>46</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -894,7 +894,7 @@
         <v>45</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -909,10 +909,10 @@
         <v>1966006.646019449</v>
       </c>
       <c r="N8">
-        <v>1.280428571428571</v>
+        <v>1.300269876134972</v>
       </c>
       <c r="O8">
-        <v>1.342878787878788</v>
+        <v>1.364969709970879</v>
       </c>
       <c r="P8">
         <v>245.7508307524311</v>
@@ -947,7 +947,7 @@
         <v>46</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -994,7 +994,7 @@
         <v>45</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1009,10 +1009,10 @@
         <v>2886714.068385309</v>
       </c>
       <c r="N10">
-        <v>1.280428571428571</v>
+        <v>1.304077921028169</v>
       </c>
       <c r="O10">
-        <v>1.342878787878788</v>
+        <v>1.369214264257821</v>
       </c>
       <c r="P10">
         <v>360.8392585481636</v>
@@ -1047,7 +1047,7 @@
         <v>46</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1094,7 +1094,7 @@
         <v>45</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>12.92654320987656</v>
       </c>
       <c r="J12">
         <v>8000</v>
@@ -1109,10 +1109,10 @@
         <v>2310370.017810292</v>
       </c>
       <c r="N12">
-        <v>1.280428571428571</v>
+        <v>1.302205489329493</v>
       </c>
       <c r="O12">
-        <v>1.342878787878788</v>
+        <v>1.367127007643996</v>
       </c>
       <c r="P12">
         <v>288.7962522262865</v>
@@ -1147,7 +1147,7 @@
         <v>46</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>12.92654320987656</v>
       </c>
       <c r="J13">
         <v>8000</v>
@@ -1194,7 +1194,7 @@
         <v>45</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="J14">
         <v>8000</v>
@@ -1209,10 +1209,10 @@
         <v>3107605.028383953</v>
       </c>
       <c r="N14">
-        <v>1.280428571428571</v>
+        <v>1.203236793039155</v>
       </c>
       <c r="O14">
-        <v>1.342878787878788</v>
+        <v>1.257328254301852</v>
       </c>
       <c r="P14">
         <v>388.450628547994</v>
@@ -1247,7 +1247,7 @@
         <v>46</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1294,7 +1294,7 @@
         <v>45</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J16">
         <v>8000</v>
@@ -1309,10 +1309,10 @@
         <v>4604588.214343108</v>
       </c>
       <c r="N16">
-        <v>1.280428571428571</v>
+        <v>1.302881541082627</v>
       </c>
       <c r="O16">
-        <v>1.342878787878788</v>
+        <v>1.367880580392128</v>
       </c>
       <c r="P16">
         <v>575.5735267928885</v>
@@ -1347,7 +1347,7 @@
         <v>46</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J17">
         <v>8000</v>
@@ -1494,7 +1494,7 @@
         <v>45</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J20">
         <v>8000</v>
@@ -1509,10 +1509,10 @@
         <v>3183366.932135797</v>
       </c>
       <c r="N20">
-        <v>1.280428571428571</v>
+        <v>1.223958122597613</v>
       </c>
       <c r="O20">
-        <v>1.342878787878788</v>
+        <v>1.280232184891932</v>
       </c>
       <c r="P20">
         <v>397.9208665169746</v>
@@ -1547,7 +1547,7 @@
         <v>46</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J21">
         <v>8000</v>
@@ -1594,7 +1594,7 @@
         <v>45</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J22">
         <v>8000</v>
@@ -1609,10 +1609,10 @@
         <v>990492.6469398811</v>
       </c>
       <c r="N22">
-        <v>1.280428571428571</v>
+        <v>1.199420117463385</v>
       </c>
       <c r="O22">
-        <v>1.342878787878788</v>
+        <v>1.253114445055376</v>
       </c>
       <c r="P22">
         <v>123.8115808674851</v>
@@ -1647,7 +1647,7 @@
         <v>46</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J23">
         <v>8000</v>
@@ -1694,7 +1694,7 @@
         <v>45</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J24">
         <v>8000</v>
@@ -1709,10 +1709,10 @@
         <v>566516.3665525992</v>
       </c>
       <c r="N24">
-        <v>1.280428571428571</v>
+        <v>1.302881541082627</v>
       </c>
       <c r="O24">
-        <v>1.342878787878788</v>
+        <v>1.367880580392128</v>
       </c>
       <c r="P24">
         <v>70.81454581907491</v>
@@ -1747,7 +1747,7 @@
         <v>46</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J25">
         <v>8000</v>
@@ -1794,7 +1794,7 @@
         <v>45</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -1809,10 +1809,10 @@
         <v>1026972.782870079</v>
       </c>
       <c r="N26">
-        <v>1.280428571428571</v>
+        <v>1.248232108317215</v>
       </c>
       <c r="O26">
-        <v>1.342878787878788</v>
+        <v>1.307120032773454</v>
       </c>
       <c r="P26">
         <v>128.3715978587599</v>
@@ -1847,7 +1847,7 @@
         <v>46</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J27">
         <v>8000</v>
@@ -1994,7 +1994,7 @@
         <v>45</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="J30">
         <v>8000</v>
@@ -2009,10 +2009,10 @@
         <v>199818.2793775711</v>
       </c>
       <c r="N30">
-        <v>1.280428571428571</v>
+        <v>1.203236793039155</v>
       </c>
       <c r="O30">
-        <v>1.342878787878788</v>
+        <v>1.257328254301852</v>
       </c>
       <c r="P30">
         <v>24.97728492219639</v>
@@ -2047,7 +2047,7 @@
         <v>46</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="J31">
         <v>8000</v>
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="J32">
         <v>8000</v>
@@ -2109,10 +2109,10 @@
         <v>1871142.531700383</v>
       </c>
       <c r="N32">
-        <v>1.280428571428571</v>
+        <v>1.233817681248088</v>
       </c>
       <c r="O32">
-        <v>1.342878787878788</v>
+        <v>1.291146001942376</v>
       </c>
       <c r="P32">
         <v>233.892816462548</v>
@@ -2147,7 +2147,7 @@
         <v>46</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="J33">
         <v>8000</v>
@@ -2394,7 +2394,7 @@
         <v>45</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="J38">
         <v>8000</v>
@@ -2409,10 +2409,10 @@
         <v>225883.1016012577</v>
       </c>
       <c r="N38">
-        <v>1.280428571428571</v>
+        <v>1.332696358504853</v>
       </c>
       <c r="O38">
-        <v>1.342878787878788</v>
+        <v>1.401162263046183</v>
       </c>
       <c r="P38">
         <v>28.23538770015721</v>
@@ -2447,7 +2447,7 @@
         <v>46</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="J39">
         <v>8000</v>
